--- a/1P/IREP/1P_G4_IREP_V1.0.0.0.xlsx
+++ b/1P/IREP/1P_G4_IREP_V1.0.0.0.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\PERSONAL\10_SEMESTRE\ANALISIS Y DISEÑO\GITHUB\22426_G4_ADS\1P\IREP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FEBCCB-E07C-4432-9A61-C41C3C57F5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{021F7581-9092-48C1-BFFA-B22C06A0365E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz Ckeck LIst" sheetId="19" r:id="rId1"/>
     <sheet name="RE01 MODELO LISTA COMPROBACION" sheetId="22" r:id="rId2"/>
-    <sheet name="RE02 MODELO LISTA COMPROBACION" sheetId="20" r:id="rId3"/>
-    <sheet name="RE03 MODELO LISTA COMPROBAC " sheetId="25" r:id="rId4"/>
+    <sheet name="RE01 RECOMENDACIONES" sheetId="24" r:id="rId3"/>
+    <sheet name="RE02 MODELO LISTA COMPROBACION" sheetId="20" r:id="rId4"/>
+    <sheet name="RE02 RECOMENDACIONES" sheetId="21" r:id="rId5"/>
+    <sheet name="RE03 MODELO LISTA COMPROBAC " sheetId="25" r:id="rId6"/>
+    <sheet name="RE03 RECOMENDACIONES " sheetId="27" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matriz Ckeck LIst'!$B$7:$G$19</definedName>
@@ -1231,7 +1234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
   <si>
     <t>OK</t>
   </si>
@@ -1388,6 +1391,12 @@
   </si>
   <si>
     <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>PREGUNTA</t>
+  </si>
+  <si>
+    <t>RECOMENDACIÓN</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1430,6 +1439,9 @@
     <t>Se considera realizar un mantenimiento despues de la presentacion al cliente</t>
   </si>
   <si>
+    <t>Realizar seguimiento con el usuario para resolver conflictos respecto a la funcionalidad del requisito</t>
+  </si>
+  <si>
     <t>RE02 Organizacion de productos de la panadería</t>
   </si>
   <si>
@@ -1455,6 +1467,27 @@
     <t>RE01 Seguridad para el control de inventario mediante usario y contraseña</t>
   </si>
   <si>
+    <t>Mejorar el contenido del glosario de términos, como lo especifica el  IEEE std. 830</t>
+  </si>
+  <si>
+    <t>Realizar la estructura definida en el estandar, como lo especifica el  IEEE std. 830</t>
+  </si>
+  <si>
+    <t>Ralizar la documentacion de requerimientos, como lo especifica el  IEEE std. 830</t>
+  </si>
+  <si>
+    <t>Mejorar el contenido del glosario de términos, como lo especifica el  IEEE std. 1830</t>
+  </si>
+  <si>
+    <t>Se debe aplicar el estandar IEE std. 1830</t>
+  </si>
+  <si>
+    <t>Se debe seguir la estructura que conlleva la estandarizacion establecida 1830</t>
+  </si>
+  <si>
+    <t>Realizar revision por cada integrante de desarrollo para saber si cumple con la sintaxis del estandar</t>
+  </si>
+  <si>
     <t>RE03 Avisos de agotamiento de inventario</t>
   </si>
   <si>
@@ -1467,20 +1500,17 @@
     <t>DESARROLLO DE UN SITEMA DE INVENTARIO PARA PANADERIA "LOS PANES DE LA RUMIÑAHUI"</t>
   </si>
   <si>
+    <t>SISTEMA DE INVENTARIO DE PANADERIA</t>
+  </si>
+  <si>
     <t>Diego Casignia, Javier Ramos, Anthony Villarreal</t>
-  </si>
-  <si>
-    <t>Inventario para panadería</t>
-  </si>
-  <si>
-    <t>RE01 Seguridad para el control de inventario mediante usario y contraseña.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,6 +1644,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1628,8 +1666,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,6 +1700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1807,15 +1857,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1890,13 +1941,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
@@ -1904,8 +1955,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1958,24 +2015,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Énfasis1" xfId="5" builtinId="31"/>
+    <cellStyle name="60% - Énfasis3" xfId="6" builtinId="40"/>
     <cellStyle name="Celda vinculada" xfId="4" builtinId="24"/>
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
     <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
@@ -4376,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4898,110 +4956,110 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
+      <c r="E5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>52</v>
+      <c r="F7" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="G7" s="8">
         <v>100</v>
       </c>
-      <c r="H7" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="43"/>
+      <c r="H7" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="44"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -5009,24 +5067,24 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -5034,24 +5092,24 @@
       <c r="B11" s="6">
         <v>3</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -5059,10 +5117,10 @@
       <c r="B12" s="6">
         <v>4</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="5" t="s">
         <v>0</v>
       </c>
@@ -5073,10 +5131,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -5084,21 +5142,21 @@
       <c r="B13" s="6">
         <v>5</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -5106,21 +5164,21 @@
       <c r="B14" s="6">
         <v>6</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -5128,24 +5186,24 @@
       <c r="B15" s="6">
         <v>7</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -5153,21 +5211,21 @@
       <c r="B16" s="6">
         <v>8</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -5175,24 +5233,24 @@
       <c r="B17" s="6">
         <v>9</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -5200,24 +5258,24 @@
       <c r="B18" s="6">
         <v>10</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18">
         <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -5225,24 +5283,24 @@
       <c r="B19" s="6">
         <v>11</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -5288,58 +5346,58 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="16.77734375" customWidth="1"/>
+    <col min="3" max="4" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="52"/>
+      <c r="C1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="55">
         <v>45777</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="54"/>
-    </row>
-    <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="C3" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="54"/>
+      <c r="C4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="56"/>
     </row>
     <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -5464,10 +5522,10 @@
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="50"/>
       <c r="C17">
         <f>COUNTA(Tabla32[SI])</f>
         <v>9</v>
@@ -5478,10 +5536,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="29">
         <f>C17/9</f>
         <v>1</v>
@@ -5497,12 +5555,12 @@
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
@@ -5579,10 +5637,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="50"/>
       <c r="C27">
         <f>COUNTA(Tabla43[SI])</f>
         <v>1</v>
@@ -5593,10 +5651,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="29">
         <f>C27/5</f>
         <v>0.2</v>
@@ -5612,12 +5670,12 @@
       <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -5670,10 +5728,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="50"/>
       <c r="C35">
         <f>COUNTA(Tabla57[SI])</f>
         <v>2</v>
@@ -5684,10 +5742,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="29">
         <f>C35/3</f>
         <v>0.66666666666666663</v>
@@ -5698,11 +5756,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="19" t="s">
@@ -5791,62 +5849,129 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAC9E12-30BF-417F-B22B-8248C535715F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="16.77734375" customWidth="1"/>
+    <col min="3" max="4" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="52"/>
+      <c r="C1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="55">
         <v>45777</v>
       </c>
-      <c r="D2" s="53"/>
-    </row>
-    <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="54"/>
-    </row>
-    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="C3" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="54"/>
+      <c r="C4" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="56"/>
     </row>
     <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -5971,10 +6096,10 @@
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="50"/>
       <c r="C17">
         <f>COUNTA(Tabla3[SI])</f>
         <v>9</v>
@@ -5985,10 +6110,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="29">
         <f>C17/9</f>
         <v>1</v>
@@ -6004,12 +6129,12 @@
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
@@ -6086,10 +6211,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="50"/>
       <c r="C27">
         <f>COUNTA(Tabla4[SI])</f>
         <v>1</v>
@@ -6100,10 +6225,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="29">
         <f>C27/5</f>
         <v>0.2</v>
@@ -6119,12 +6244,12 @@
       <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -6177,10 +6302,10 @@
       <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="50"/>
       <c r="C35">
         <f>COUNTA(Tabla5[SI])</f>
         <v>3</v>
@@ -6191,10 +6316,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="29">
         <f>C35/3</f>
         <v>1</v>
@@ -6205,11 +6330,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="19" t="s">
@@ -6297,63 +6422,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA73081-3394-44E0-BA04-C34E2B263B6A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="16.77734375" customWidth="1"/>
+    <col min="3" max="4" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="52"/>
+      <c r="C1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="55">
         <v>45777</v>
       </c>
-      <c r="D2" s="53"/>
-    </row>
-    <row r="3" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="54"/>
-    </row>
-    <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="C3" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="54"/>
+      <c r="C4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="56"/>
     </row>
     <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
@@ -6478,10 +6663,10 @@
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="50"/>
       <c r="C17">
         <f>COUNTA(Tabla328[SI])</f>
         <v>9</v>
@@ -6492,10 +6677,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="29">
         <f>C17/9</f>
         <v>1</v>
@@ -6511,12 +6696,12 @@
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
@@ -6593,10 +6778,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="50"/>
       <c r="C27">
         <f>COUNTA(Tabla439[SI])</f>
         <v>1</v>
@@ -6607,10 +6792,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="29">
         <f>C27/5</f>
         <v>0.2</v>
@@ -6626,12 +6811,12 @@
       <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -6684,10 +6869,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="50"/>
       <c r="C35">
         <f>COUNTA(Tabla5710[SI])</f>
         <v>2</v>
@@ -6698,10 +6883,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="29">
         <f>C35/3</f>
         <v>0.66666666666666663</v>
@@ -6712,11 +6897,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="19" t="s">
@@ -6802,4 +6987,64 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF6DBB4-578B-407B-9590-6F192F2BA4F5}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.5546875" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>